--- a/solutions/ch-1-solutions.xlsx
+++ b/solutions/ch-1-solutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\advancing-into-analytics-book\solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886B34E6-18A3-4969-878D-AE963731D97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866A5FB1-6B7F-4198-82FD-6D0DA1B33B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{958DCFEE-4AB2-4755-A486-06FC85619825}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{958DCFEE-4AB2-4755-A486-06FC85619825}"/>
   </bookViews>
   <sheets>
     <sheet name="housing" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,8 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">housing!$C$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">housing!$C$2:$C$547</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">housing!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">housing!$C$2:$C$547</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">housing!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">housing!$C$2:$C$547</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">housing!$C$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">housing!$C$2:$C$547</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">housing!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">housing!$C$2:$C$547</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">housing!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">housing!$C$2:$C$547</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">housing!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">housing!$C$2:$C$547</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
@@ -40,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -281,7 +271,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -299,7 +309,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -355,7 +365,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{4A2D65FF-1CD5-4932-8CE1-4E1DCFFDC1B1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>lotsize</cx:v>
             </cx:txData>
           </cx:tx>
@@ -384,7 +394,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -443,7 +453,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1A02C346-5C2E-49F0-B0A8-D16080FA045A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>lotsize</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1733,9 +1743,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="George Mount" refreshedDate="44115.717222800929" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="546" xr:uid="{D152F948-F3A1-4C8B-AD6E-A4E418C6FC58}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="George Mount" refreshedDate="44171.582927777781" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="546" xr:uid="{33C314BD-6AD9-4573-9A4A-189CACF5B8BE}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:M547" sheet="housing"/>
+    <worksheetSource name="housing"/>
   </cacheSource>
   <cacheFields count="13">
     <cacheField name="id" numFmtId="0">
@@ -1754,21 +1764,13 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="stories" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
-        <n v="2"/>
-        <n v="1"/>
-        <n v="3"/>
-        <n v="4"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="driveway" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="recroom" numFmtId="0">
-      <sharedItems count="2">
-        <s v="no"/>
-        <s v="yes"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="fullbase" numFmtId="0">
       <sharedItems/>
@@ -1808,9 +1810,9 @@
     <n v="5850"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -1823,9 +1825,9 @@
     <n v="4000"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -1838,9 +1840,9 @@
     <n v="3060"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -1853,9 +1855,9 @@
     <n v="6650"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -1868,9 +1870,9 @@
     <n v="6360"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -1883,9 +1885,9 @@
     <n v="4160"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -1898,9 +1900,9 @@
     <n v="3880"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -1913,9 +1915,9 @@
     <n v="4160"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -1928,9 +1930,9 @@
     <n v="4800"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -1943,9 +1945,9 @@
     <n v="5500"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -1958,9 +1960,9 @@
     <n v="7200"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -1973,9 +1975,9 @@
     <n v="3000"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -1988,9 +1990,9 @@
     <n v="1700"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2003,9 +2005,9 @@
     <n v="2880"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2018,9 +2020,9 @@
     <n v="3600"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2033,9 +2035,9 @@
     <n v="3185"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -2048,9 +2050,9 @@
     <n v="3300"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2063,9 +2065,9 @@
     <n v="5200"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2078,9 +2080,9 @@
     <n v="3450"/>
     <n v="1"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2093,9 +2095,9 @@
     <n v="3986"/>
     <n v="2"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2108,9 +2110,9 @@
     <n v="4785"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -2123,9 +2125,9 @@
     <n v="4510"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2138,9 +2140,9 @@
     <n v="4000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -2153,9 +2155,9 @@
     <n v="3934"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2168,9 +2170,9 @@
     <n v="4960"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2183,9 +2185,9 @@
     <n v="3000"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2198,9 +2200,9 @@
     <n v="3800"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2213,9 +2215,9 @@
     <n v="4960"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -2228,9 +2230,9 @@
     <n v="3000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -2243,9 +2245,9 @@
     <n v="4500"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -2258,9 +2260,9 @@
     <n v="3500"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2273,9 +2275,9 @@
     <n v="3500"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -2288,9 +2290,9 @@
     <n v="4000"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2303,9 +2305,9 @@
     <n v="4500"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2318,9 +2320,9 @@
     <n v="6360"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2333,9 +2335,9 @@
     <n v="4500"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -2348,9 +2350,9 @@
     <n v="4032"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2363,9 +2365,9 @@
     <n v="5170"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -2378,9 +2380,9 @@
     <n v="5400"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -2393,9 +2395,9 @@
     <n v="3150"/>
     <n v="2"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2408,9 +2410,9 @@
     <n v="3745"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2423,9 +2425,9 @@
     <n v="4520"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -2438,9 +2440,9 @@
     <n v="4640"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2453,9 +2455,9 @@
     <n v="8580"/>
     <n v="5"/>
     <n v="3"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2468,9 +2470,9 @@
     <n v="2000"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2483,9 +2485,9 @@
     <n v="2160"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2498,9 +2500,9 @@
     <n v="3040"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2513,9 +2515,9 @@
     <n v="3090"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2528,9 +2530,9 @@
     <n v="4960"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2543,9 +2545,9 @@
     <n v="3350"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2558,9 +2560,9 @@
     <n v="5300"/>
     <n v="5"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2573,9 +2575,9 @@
     <n v="4100"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2588,9 +2590,9 @@
     <n v="9166"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -2603,9 +2605,9 @@
     <n v="4040"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="yes"/>
     <x v="0"/>
@@ -2618,9 +2620,9 @@
     <n v="3630"/>
     <n v="3"/>
     <n v="3"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2633,9 +2635,9 @@
     <n v="3620"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2648,9 +2650,9 @@
     <n v="2400"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2663,9 +2665,9 @@
     <n v="7260"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2678,9 +2680,9 @@
     <n v="4400"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2693,9 +2695,9 @@
     <n v="2400"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2708,9 +2710,9 @@
     <n v="4120"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2723,9 +2725,9 @@
     <n v="4750"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2738,9 +2740,9 @@
     <n v="4280"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -2753,9 +2755,9 @@
     <n v="4820"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2768,9 +2770,9 @@
     <n v="5500"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2783,9 +2785,9 @@
     <n v="5500"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -2798,9 +2800,9 @@
     <n v="5040"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -2813,9 +2815,9 @@
     <n v="6000"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -2828,9 +2830,9 @@
     <n v="2500"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -2843,9 +2845,9 @@
     <n v="4095"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -2858,9 +2860,9 @@
     <n v="4095"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2873,9 +2875,9 @@
     <n v="3150"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2888,9 +2890,9 @@
     <n v="1836"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2903,9 +2905,9 @@
     <n v="2475"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2918,9 +2920,9 @@
     <n v="3210"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2933,9 +2935,9 @@
     <n v="3180"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -2948,9 +2950,9 @@
     <n v="1650"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2963,9 +2965,9 @@
     <n v="3180"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -2978,9 +2980,9 @@
     <n v="3180"/>
     <n v="2"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -2993,9 +2995,9 @@
     <n v="6360"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -3008,9 +3010,9 @@
     <n v="4240"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -3023,9 +3025,9 @@
     <n v="3240"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3038,9 +3040,9 @@
     <n v="3650"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3053,9 +3055,9 @@
     <n v="3240"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3068,9 +3070,9 @@
     <n v="3780"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3083,9 +3085,9 @@
     <n v="6480"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -3098,9 +3100,9 @@
     <n v="5850"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3113,9 +3115,9 @@
     <n v="3150"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -3128,9 +3130,9 @@
     <n v="3000"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3143,9 +3145,9 @@
     <n v="3090"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3158,9 +3160,9 @@
     <n v="6060"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3173,9 +3175,9 @@
     <n v="5900"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3188,9 +3190,9 @@
     <n v="7420"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -3203,9 +3205,9 @@
     <n v="8500"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -3218,9 +3220,9 @@
     <n v="8050"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -3233,9 +3235,9 @@
     <n v="6800"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3248,9 +3250,9 @@
     <n v="8250"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3263,9 +3265,9 @@
     <n v="8250"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3278,9 +3280,9 @@
     <n v="3500"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3293,9 +3295,9 @@
     <n v="2835"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3308,9 +3310,9 @@
     <n v="4500"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -3323,9 +3325,9 @@
     <n v="3300"/>
     <n v="3"/>
     <n v="3"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3338,9 +3340,9 @@
     <n v="4320"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="yes"/>
     <x v="0"/>
@@ -3353,9 +3355,9 @@
     <n v="3500"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -3368,9 +3370,9 @@
     <n v="4992"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3383,9 +3385,9 @@
     <n v="4600"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3398,9 +3400,9 @@
     <n v="3720"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -3413,9 +3415,9 @@
     <n v="3680"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3428,9 +3430,9 @@
     <n v="3000"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3443,9 +3445,9 @@
     <n v="3750"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3458,9 +3460,9 @@
     <n v="5076"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3473,9 +3475,9 @@
     <n v="4500"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3488,9 +3490,9 @@
     <n v="5000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -3503,9 +3505,9 @@
     <n v="4260"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -3518,9 +3520,9 @@
     <n v="6540"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -3533,9 +3535,9 @@
     <n v="3700"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -3548,9 +3550,9 @@
     <n v="3760"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -3563,9 +3565,9 @@
     <n v="4000"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -3578,9 +3580,9 @@
     <n v="4300"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3593,9 +3595,9 @@
     <n v="6840"/>
     <n v="5"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -3608,9 +3610,9 @@
     <n v="4400"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3623,9 +3625,9 @@
     <n v="10500"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3638,9 +3640,9 @@
     <n v="4400"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3653,9 +3655,9 @@
     <n v="4840"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3668,9 +3670,9 @@
     <n v="4120"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3683,9 +3685,9 @@
     <n v="4260"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -3698,9 +3700,9 @@
     <n v="5960"/>
     <n v="3"/>
     <n v="3"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3713,9 +3715,9 @@
     <n v="8800"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -3728,9 +3730,9 @@
     <n v="4560"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -3743,9 +3745,9 @@
     <n v="4600"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -3758,9 +3760,9 @@
     <n v="4840"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3773,9 +3775,9 @@
     <n v="3850"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3788,9 +3790,9 @@
     <n v="4900"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3803,9 +3805,9 @@
     <n v="3850"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3818,9 +3820,9 @@
     <n v="3760"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3833,9 +3835,9 @@
     <n v="6000"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3848,9 +3850,9 @@
     <n v="4370"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3863,9 +3865,9 @@
     <n v="7700"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3878,9 +3880,9 @@
     <n v="2990"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3893,9 +3895,9 @@
     <n v="3750"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3908,9 +3910,9 @@
     <n v="3000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3923,9 +3925,9 @@
     <n v="2650"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3938,9 +3940,9 @@
     <n v="4500"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -3953,9 +3955,9 @@
     <n v="4500"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -3968,9 +3970,9 @@
     <n v="4500"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -3983,9 +3985,9 @@
     <n v="4500"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -3998,9 +4000,9 @@
     <n v="2175"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -4013,9 +4015,9 @@
     <n v="4500"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -4028,9 +4030,9 @@
     <n v="4800"/>
     <n v="5"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="yes"/>
     <x v="0"/>
@@ -4043,9 +4045,9 @@
     <n v="4600"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4058,9 +4060,9 @@
     <n v="3450"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4073,9 +4075,9 @@
     <n v="3000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4088,9 +4090,9 @@
     <n v="3600"/>
     <n v="2"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -4103,9 +4105,9 @@
     <n v="3600"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4118,9 +4120,9 @@
     <n v="3750"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4133,9 +4135,9 @@
     <n v="2610"/>
     <n v="4"/>
     <n v="3"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4148,9 +4150,9 @@
     <n v="2953"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -4163,9 +4165,9 @@
     <n v="2747"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4178,9 +4180,9 @@
     <n v="1905"/>
     <n v="5"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -4193,9 +4195,9 @@
     <n v="3968"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4208,9 +4210,9 @@
     <n v="3162"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -4223,9 +4225,9 @@
     <n v="6000"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -4238,9 +4240,9 @@
     <n v="2910"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4253,9 +4255,9 @@
     <n v="2135"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4268,9 +4270,9 @@
     <n v="3120"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="yes"/>
     <x v="0"/>
@@ -4283,9 +4285,9 @@
     <n v="4075"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -4298,9 +4300,9 @@
     <n v="3410"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -4313,9 +4315,9 @@
     <n v="2800"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4328,9 +4330,9 @@
     <n v="2684"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -4343,9 +4345,9 @@
     <n v="3100"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -4358,9 +4360,9 @@
     <n v="3630"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -4373,9 +4375,9 @@
     <n v="1950"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -4388,9 +4390,9 @@
     <n v="2430"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4403,9 +4405,9 @@
     <n v="4320"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4418,9 +4420,9 @@
     <n v="3036"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -4433,9 +4435,9 @@
     <n v="3630"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -4448,9 +4450,9 @@
     <n v="5400"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4463,9 +4465,9 @@
     <n v="3420"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -4478,9 +4480,9 @@
     <n v="3180"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4493,9 +4495,9 @@
     <n v="3660"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4508,9 +4510,9 @@
     <n v="4410"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4523,9 +4525,9 @@
     <n v="3990"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4538,9 +4540,9 @@
     <n v="4340"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4553,9 +4555,9 @@
     <n v="3510"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4568,9 +4570,9 @@
     <n v="3420"/>
     <n v="5"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4583,9 +4585,9 @@
     <n v="3420"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -4598,9 +4600,9 @@
     <n v="5495"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -4613,9 +4615,9 @@
     <n v="3480"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4628,9 +4630,9 @@
     <n v="7424"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4643,9 +4645,9 @@
     <n v="3460"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -4658,9 +4660,9 @@
     <n v="3630"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4673,9 +4675,9 @@
     <n v="3630"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -4688,9 +4690,9 @@
     <n v="3480"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4703,9 +4705,9 @@
     <n v="3460"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -4718,9 +4720,9 @@
     <n v="3180"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4733,9 +4735,9 @@
     <n v="3635"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4748,9 +4750,9 @@
     <n v="3960"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4763,9 +4765,9 @@
     <n v="4350"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -4778,9 +4780,9 @@
     <n v="3930"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4793,9 +4795,9 @@
     <n v="3570"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -4808,9 +4810,9 @@
     <n v="3600"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4823,9 +4825,9 @@
     <n v="2520"/>
     <n v="5"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -4838,9 +4840,9 @@
     <n v="3480"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -4853,9 +4855,9 @@
     <n v="3180"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4868,9 +4870,9 @@
     <n v="3290"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -4883,9 +4885,9 @@
     <n v="4000"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4898,9 +4900,9 @@
     <n v="2325"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4913,9 +4915,9 @@
     <n v="4350"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -4928,9 +4930,9 @@
     <n v="3540"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -4943,9 +4945,9 @@
     <n v="3960"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -4958,9 +4960,9 @@
     <n v="2640"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4973,9 +4975,9 @@
     <n v="2700"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -4988,9 +4990,9 @@
     <n v="2700"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5003,9 +5005,9 @@
     <n v="3180"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5018,9 +5020,9 @@
     <n v="3500"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5033,9 +5035,9 @@
     <n v="3630"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5048,9 +5050,9 @@
     <n v="6000"/>
     <n v="4"/>
     <n v="3"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="yes"/>
     <x v="0"/>
@@ -5063,9 +5065,9 @@
     <n v="3150"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5078,9 +5080,9 @@
     <n v="3792"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5093,9 +5095,9 @@
     <n v="3510"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5108,9 +5110,9 @@
     <n v="3120"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5123,9 +5125,9 @@
     <n v="3000"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -5138,9 +5140,9 @@
     <n v="4200"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5153,9 +5155,9 @@
     <n v="2817"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5168,9 +5170,9 @@
     <n v="3240"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5183,9 +5185,9 @@
     <n v="2800"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -5198,9 +5200,9 @@
     <n v="3816"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -5213,9 +5215,9 @@
     <n v="3185"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5228,9 +5230,9 @@
     <n v="6321"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -5243,9 +5245,9 @@
     <n v="3650"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5258,9 +5260,9 @@
     <n v="4700"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -5273,9 +5275,9 @@
     <n v="6615"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -5288,9 +5290,9 @@
     <n v="3850"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5303,9 +5305,9 @@
     <n v="3970"/>
     <n v="1"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5318,9 +5320,9 @@
     <n v="3000"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5333,9 +5335,9 @@
     <n v="4352"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5348,9 +5350,9 @@
     <n v="3630"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5363,9 +5365,9 @@
     <n v="3600"/>
     <n v="6"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5378,9 +5380,9 @@
     <n v="3000"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5393,9 +5395,9 @@
     <n v="3000"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5408,9 +5410,9 @@
     <n v="2787"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5423,9 +5425,9 @@
     <n v="3000"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -5438,9 +5440,9 @@
     <n v="4770"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5453,9 +5455,9 @@
     <n v="3649"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5468,9 +5470,9 @@
     <n v="3970"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5483,9 +5485,9 @@
     <n v="2910"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5498,9 +5500,9 @@
     <n v="3480"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5513,9 +5515,9 @@
     <n v="6615"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5528,9 +5530,9 @@
     <n v="3500"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5543,9 +5545,9 @@
     <n v="3450"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5558,9 +5560,9 @@
     <n v="3450"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5573,9 +5575,9 @@
     <n v="3520"/>
     <n v="2"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5588,9 +5590,9 @@
     <n v="6930"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5603,9 +5605,9 @@
     <n v="4600"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -5618,9 +5620,9 @@
     <n v="4360"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5633,9 +5635,9 @@
     <n v="3450"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5648,9 +5650,9 @@
     <n v="4410"/>
     <n v="4"/>
     <n v="3"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5663,9 +5665,9 @@
     <n v="4600"/>
     <n v="2"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -5678,9 +5680,9 @@
     <n v="3640"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5693,9 +5695,9 @@
     <n v="6000"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5708,9 +5710,9 @@
     <n v="5400"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5723,9 +5725,9 @@
     <n v="3640"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5738,9 +5740,9 @@
     <n v="3640"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5753,9 +5755,9 @@
     <n v="4040"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5768,9 +5770,9 @@
     <n v="3640"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5783,9 +5785,9 @@
     <n v="3640"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5798,9 +5800,9 @@
     <n v="5640"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5813,9 +5815,9 @@
     <n v="3600"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5828,9 +5830,9 @@
     <n v="3600"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5843,9 +5845,9 @@
     <n v="4632"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -5858,9 +5860,9 @@
     <n v="3640"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5873,9 +5875,9 @@
     <n v="4900"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5888,9 +5890,9 @@
     <n v="4510"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -5903,9 +5905,9 @@
     <n v="4100"/>
     <n v="2"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -5918,9 +5920,9 @@
     <n v="3640"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -5933,9 +5935,9 @@
     <n v="5680"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -5948,9 +5950,9 @@
     <n v="6300"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -5963,9 +5965,9 @@
     <n v="4000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5978,9 +5980,9 @@
     <n v="3960"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -5993,9 +5995,9 @@
     <n v="5960"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -6008,9 +6010,9 @@
     <n v="5830"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6023,9 +6025,9 @@
     <n v="4500"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -6038,9 +6040,9 @@
     <n v="4100"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6053,9 +6055,9 @@
     <n v="6750"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6068,9 +6070,9 @@
     <n v="9000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6083,9 +6085,9 @@
     <n v="2550"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -6098,9 +6100,9 @@
     <n v="7152"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6113,9 +6115,9 @@
     <n v="6450"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6128,9 +6130,9 @@
     <n v="3360"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6143,9 +6145,9 @@
     <n v="3264"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6158,9 +6160,9 @@
     <n v="4000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6173,9 +6175,9 @@
     <n v="4000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6188,9 +6190,9 @@
     <n v="3069"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6203,9 +6205,9 @@
     <n v="4040"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6218,9 +6220,9 @@
     <n v="4040"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6233,9 +6235,9 @@
     <n v="3185"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6248,9 +6250,9 @@
     <n v="5900"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6263,9 +6265,9 @@
     <n v="3120"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6278,9 +6280,9 @@
     <n v="5450"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6293,9 +6295,9 @@
     <n v="4040"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6308,9 +6310,9 @@
     <n v="4080"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6323,9 +6325,9 @@
     <n v="8080"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6338,9 +6340,9 @@
     <n v="4040"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6353,9 +6355,9 @@
     <n v="4080"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6368,9 +6370,9 @@
     <n v="5800"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -6383,9 +6385,9 @@
     <n v="5885"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6398,9 +6400,9 @@
     <n v="9667"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -6413,9 +6415,9 @@
     <n v="3420"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6428,9 +6430,9 @@
     <n v="5800"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -6443,9 +6445,9 @@
     <n v="7600"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6458,9 +6460,9 @@
     <n v="5400"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6473,9 +6475,9 @@
     <n v="4995"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -6488,9 +6490,9 @@
     <n v="3000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -6503,9 +6505,9 @@
     <n v="5500"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -6518,9 +6520,9 @@
     <n v="6450"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="yes"/>
     <x v="0"/>
@@ -6533,9 +6535,9 @@
     <n v="6210"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6548,9 +6550,9 @@
     <n v="5000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6563,9 +6565,9 @@
     <n v="5000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6578,9 +6580,9 @@
     <n v="5828"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6593,9 +6595,9 @@
     <n v="5200"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6608,9 +6610,9 @@
     <n v="5500"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6623,9 +6625,9 @@
     <n v="6350"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6638,9 +6640,9 @@
     <n v="8250"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6653,9 +6655,9 @@
     <n v="6000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6668,9 +6670,9 @@
     <n v="7700"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6683,9 +6685,9 @@
     <n v="8880"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -6698,9 +6700,9 @@
     <n v="8880"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6713,9 +6715,9 @@
     <n v="6480"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6728,9 +6730,9 @@
     <n v="7000"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6743,9 +6745,9 @@
     <n v="8875"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6758,9 +6760,9 @@
     <n v="7155"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -6773,9 +6775,9 @@
     <n v="8960"/>
     <n v="4"/>
     <n v="4"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6788,9 +6790,9 @@
     <n v="7350"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6803,9 +6805,9 @@
     <n v="3850"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6818,9 +6820,9 @@
     <n v="7000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6833,9 +6835,9 @@
     <n v="7770"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6848,9 +6850,9 @@
     <n v="7440"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -6863,9 +6865,9 @@
     <n v="7500"/>
     <n v="3"/>
     <n v="3"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -6878,9 +6880,9 @@
     <n v="8100"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -6893,9 +6895,9 @@
     <n v="3900"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6908,9 +6910,9 @@
     <n v="2970"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6923,9 +6925,9 @@
     <n v="3000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -6938,9 +6940,9 @@
     <n v="10500"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6953,9 +6955,9 @@
     <n v="5500"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6968,9 +6970,9 @@
     <n v="4500"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -6983,9 +6985,9 @@
     <n v="3850"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -6998,9 +7000,9 @@
     <n v="4130"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -7013,9 +7015,9 @@
     <n v="4046"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7028,9 +7030,9 @@
     <n v="4079"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -7043,9 +7045,9 @@
     <n v="4000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -7058,9 +7060,9 @@
     <n v="9860"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -7073,9 +7075,9 @@
     <n v="7000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7088,9 +7090,9 @@
     <n v="7980"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -7103,9 +7105,9 @@
     <n v="6800"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7118,9 +7120,9 @@
     <n v="4300"/>
     <n v="6"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -7133,9 +7135,9 @@
     <n v="10269"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -7148,9 +7150,9 @@
     <n v="6100"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7163,9 +7165,9 @@
     <n v="6420"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7178,9 +7180,9 @@
     <n v="12090"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -7193,9 +7195,9 @@
     <n v="6600"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7208,9 +7210,9 @@
     <n v="6600"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7223,9 +7225,9 @@
     <n v="8580"/>
     <n v="4"/>
     <n v="3"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7238,9 +7240,9 @@
     <n v="9960"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7253,9 +7255,9 @@
     <n v="10700"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7268,9 +7270,9 @@
     <n v="15600"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7283,9 +7285,9 @@
     <n v="13200"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="yes"/>
     <x v="0"/>
@@ -7298,9 +7300,9 @@
     <n v="9000"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7313,9 +7315,9 @@
     <n v="7950"/>
     <n v="5"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="yes"/>
     <x v="0"/>
@@ -7328,9 +7330,9 @@
     <n v="16200"/>
     <n v="5"/>
     <n v="3"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -7343,9 +7345,9 @@
     <n v="6100"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7358,9 +7360,9 @@
     <n v="6360"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7373,9 +7375,9 @@
     <n v="6420"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7388,9 +7390,9 @@
     <n v="6360"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7403,9 +7405,9 @@
     <n v="6540"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7418,9 +7420,9 @@
     <n v="6420"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7433,9 +7435,9 @@
     <n v="6550"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7448,9 +7450,9 @@
     <n v="5750"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7463,9 +7465,9 @@
     <n v="7420"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7478,9 +7480,9 @@
     <n v="7160"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7493,9 +7495,9 @@
     <n v="4000"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7508,9 +7510,9 @@
     <n v="9000"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7523,9 +7525,9 @@
     <n v="6550"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7538,9 +7540,9 @@
     <n v="13200"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7553,9 +7555,9 @@
     <n v="7085"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7568,9 +7570,9 @@
     <n v="6600"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7583,9 +7585,9 @@
     <n v="6900"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7598,9 +7600,9 @@
     <n v="11460"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -7613,9 +7615,9 @@
     <n v="7020"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7628,9 +7630,9 @@
     <n v="6540"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7643,9 +7645,9 @@
     <n v="8000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7658,9 +7660,9 @@
     <n v="9620"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7673,9 +7675,9 @@
     <n v="10500"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7688,9 +7690,9 @@
     <n v="5020"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7703,9 +7705,9 @@
     <n v="7440"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -7718,9 +7720,9 @@
     <n v="6600"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7733,9 +7735,9 @@
     <n v="7200"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7748,9 +7750,9 @@
     <n v="6710"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7763,9 +7765,9 @@
     <n v="6660"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7778,9 +7780,9 @@
     <n v="7000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7793,9 +7795,9 @@
     <n v="7231"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7808,9 +7810,9 @@
     <n v="7410"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7823,9 +7825,9 @@
     <n v="7800"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7838,9 +7840,9 @@
     <n v="6825"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7853,9 +7855,9 @@
     <n v="6360"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -7868,9 +7870,9 @@
     <n v="6600"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7883,9 +7885,9 @@
     <n v="6900"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7898,9 +7900,9 @@
     <n v="6600"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7913,9 +7915,9 @@
     <n v="6420"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7928,9 +7930,9 @@
     <n v="6600"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -7943,9 +7945,9 @@
     <n v="6600"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7958,9 +7960,9 @@
     <n v="9000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -7973,9 +7975,9 @@
     <n v="6500"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -7988,9 +7990,9 @@
     <n v="6360"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -8003,9 +8005,9 @@
     <n v="5300"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -8018,9 +8020,9 @@
     <n v="2850"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="no"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="no"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8033,9 +8035,9 @@
     <n v="6400"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -8048,9 +8050,9 @@
     <n v="11175"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -8063,9 +8065,9 @@
     <n v="6750"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8078,9 +8080,9 @@
     <n v="7500"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -8093,9 +8095,9 @@
     <n v="6000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -8108,9 +8110,9 @@
     <n v="10240"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -8123,9 +8125,9 @@
     <n v="5136"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -8138,9 +8140,9 @@
     <n v="3400"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8153,9 +8155,9 @@
     <n v="2880"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8168,9 +8170,9 @@
     <n v="3840"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8183,9 +8185,9 @@
     <n v="2870"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8198,9 +8200,9 @@
     <n v="5320"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8213,9 +8215,9 @@
     <n v="3512"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8228,9 +8230,9 @@
     <n v="3480"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8243,9 +8245,9 @@
     <n v="3600"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -8258,9 +8260,9 @@
     <n v="3520"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8273,9 +8275,9 @@
     <n v="5320"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8288,9 +8290,9 @@
     <n v="6040"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8303,9 +8305,9 @@
     <n v="11410"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8318,9 +8320,9 @@
     <n v="8400"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -8333,9 +8335,9 @@
     <n v="5300"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -8348,9 +8350,9 @@
     <n v="7800"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8363,9 +8365,9 @@
     <n v="3520"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8378,9 +8380,9 @@
     <n v="5360"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8393,9 +8395,9 @@
     <n v="6862"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -8408,9 +8410,9 @@
     <n v="3520"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8423,9 +8425,9 @@
     <n v="4050"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8438,9 +8440,9 @@
     <n v="3520"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8453,9 +8455,9 @@
     <n v="4400"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -8468,9 +8470,9 @@
     <n v="5720"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -8483,9 +8485,9 @@
     <n v="11440"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8498,9 +8500,9 @@
     <n v="7482"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -8513,9 +8515,9 @@
     <n v="5500"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -8528,9 +8530,9 @@
     <n v="4320"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8543,9 +8545,9 @@
     <n v="5400"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8558,9 +8560,9 @@
     <n v="4320"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8573,9 +8575,9 @@
     <n v="4815"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -8588,9 +8590,9 @@
     <n v="6100"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -8603,9 +8605,9 @@
     <n v="7980"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8618,9 +8620,9 @@
     <n v="6050"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8633,9 +8635,9 @@
     <n v="3800"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8648,9 +8650,9 @@
     <n v="5400"/>
     <n v="5"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -8663,9 +8665,9 @@
     <n v="6000"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -8678,9 +8680,9 @@
     <n v="2398"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8693,9 +8695,9 @@
     <n v="2145"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8708,9 +8710,9 @@
     <n v="2145"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8723,9 +8725,9 @@
     <n v="2145"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8738,9 +8740,9 @@
     <n v="2610"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8753,9 +8755,9 @@
     <n v="1950"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8768,9 +8770,9 @@
     <n v="2145"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8783,9 +8785,9 @@
     <n v="2275"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="1"/>
@@ -8798,9 +8800,9 @@
     <n v="2856"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8813,9 +8815,9 @@
     <n v="2015"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8828,9 +8830,9 @@
     <n v="2176"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8843,9 +8845,9 @@
     <n v="2145"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8858,9 +8860,9 @@
     <n v="2145"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8873,9 +8875,9 @@
     <n v="2787"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8888,9 +8890,9 @@
     <n v="9500"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8903,9 +8905,9 @@
     <n v="4990"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8918,9 +8920,9 @@
     <n v="6670"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8933,9 +8935,9 @@
     <n v="6254"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8948,9 +8950,9 @@
     <n v="10360"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -8963,9 +8965,9 @@
     <n v="5500"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -8978,9 +8980,9 @@
     <n v="5450"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -8993,9 +8995,9 @@
     <n v="5500"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9008,9 +9010,9 @@
     <n v="6000"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -9023,9 +9025,9 @@
     <n v="5700"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -9038,9 +9040,9 @@
     <n v="6600"/>
     <n v="2"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -9053,9 +9055,9 @@
     <n v="4000"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9068,9 +9070,9 @@
     <n v="4880"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9083,9 +9085,9 @@
     <n v="4880"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9098,9 +9100,9 @@
     <n v="8050"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9113,9 +9115,9 @@
     <n v="8100"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9128,9 +9130,9 @@
     <n v="5880"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9143,9 +9145,9 @@
     <n v="5880"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9158,9 +9160,9 @@
     <n v="12944"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9173,9 +9175,9 @@
     <n v="6020"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9188,9 +9190,9 @@
     <n v="4050"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9203,9 +9205,9 @@
     <n v="8400"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9218,9 +9220,9 @@
     <n v="5600"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9233,9 +9235,9 @@
     <n v="5985"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -9248,9 +9250,9 @@
     <n v="4500"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -9263,9 +9265,9 @@
     <n v="4920"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9278,9 +9280,9 @@
     <n v="8250"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9293,9 +9295,9 @@
     <n v="8400"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9308,9 +9310,9 @@
     <n v="6440"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9323,9 +9325,9 @@
     <n v="8100"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="1"/>
@@ -9338,9 +9340,9 @@
     <n v="6720"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9353,9 +9355,9 @@
     <n v="5948"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9368,9 +9370,9 @@
     <n v="8150"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -9383,9 +9385,9 @@
     <n v="4800"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -9398,9 +9400,9 @@
     <n v="9800"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9413,9 +9415,9 @@
     <n v="8520"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9428,9 +9430,9 @@
     <n v="8372"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9443,9 +9445,9 @@
     <n v="4040"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9458,9 +9460,9 @@
     <n v="4646"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -9473,9 +9475,9 @@
     <n v="4775"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9488,9 +9490,9 @@
     <n v="4950"/>
     <n v="4"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9503,9 +9505,9 @@
     <n v="5010"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -9518,9 +9520,9 @@
     <n v="6060"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="yes"/>
     <s v="no"/>
     <x v="0"/>
@@ -9533,9 +9535,9 @@
     <n v="3584"/>
     <n v="2"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="yes"/>
     <x v="0"/>
@@ -9548,9 +9550,9 @@
     <n v="6000"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9563,9 +9565,9 @@
     <n v="6000"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9578,9 +9580,9 @@
     <n v="6240"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9593,9 +9595,9 @@
     <n v="6000"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9608,9 +9610,9 @@
     <n v="7680"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9623,9 +9625,9 @@
     <n v="6000"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9638,9 +9640,9 @@
     <n v="6000"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9653,9 +9655,9 @@
     <n v="6000"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9668,9 +9670,9 @@
     <n v="6000"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9683,9 +9685,9 @@
     <n v="7475"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9698,9 +9700,9 @@
     <n v="5150"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9713,9 +9715,9 @@
     <n v="6325"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9728,9 +9730,9 @@
     <n v="6000"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9743,9 +9745,9 @@
     <n v="6000"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9758,9 +9760,9 @@
     <n v="6000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9773,9 +9775,9 @@
     <n v="7000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9788,9 +9790,9 @@
     <n v="12900"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9803,9 +9805,9 @@
     <n v="7686"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="1"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="1"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="yes"/>
     <s v="yes"/>
     <x v="0"/>
@@ -9818,9 +9820,9 @@
     <n v="5000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9833,9 +9835,9 @@
     <n v="5800"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9848,9 +9850,9 @@
     <n v="6000"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9863,9 +9865,9 @@
     <n v="4800"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9878,9 +9880,9 @@
     <n v="6500"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="2"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="3"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9893,9 +9895,9 @@
     <n v="7320"/>
     <n v="4"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9908,9 +9910,9 @@
     <n v="6525"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="0"/>
@@ -9923,9 +9925,9 @@
     <n v="4800"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9938,9 +9940,9 @@
     <n v="6000"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9953,9 +9955,9 @@
     <n v="6000"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="3"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="4"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9968,9 +9970,9 @@
     <n v="6000"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="1"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="yes"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9983,9 +9985,9 @@
     <n v="6000"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="yes"/>
-    <x v="0"/>
+    <n v="2"/>
+    <s v="yes"/>
+    <s v="no"/>
     <s v="no"/>
     <s v="no"/>
     <x v="1"/>
@@ -9996,7 +9998,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3974FAFA-7705-4873-8B87-FD7DD9C0E9C6}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ECA6786-C04C-4D89-9272-F526FAE09384}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C17:F21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -10004,23 +10006,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -10083,6 +10071,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{281FB21D-7D69-4766-B6F6-CC100EE6A22F}" name="housing" displayName="housing" ref="A1:M547" totalsRowShown="0" headerRowDxfId="0">
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{F0FB98AF-009F-4874-8D0C-1F1E27963949}" name="id"/>
+    <tableColumn id="2" xr3:uid="{E7DCA2E2-38CD-40DA-8DEC-25CB7449CBBF}" name="price"/>
+    <tableColumn id="3" xr3:uid="{85608B34-02B3-467F-8605-FF5CDA9301CE}" name="lotsize"/>
+    <tableColumn id="4" xr3:uid="{90576606-83C0-4997-B9C9-A21C2B27C407}" name="bedrooms"/>
+    <tableColumn id="5" xr3:uid="{EB2B2A4E-1318-4A66-BA92-2246B0BBDF39}" name="bathrms"/>
+    <tableColumn id="6" xr3:uid="{6F0D453B-A73A-4E8D-9298-07DCCD7A4A68}" name="stories"/>
+    <tableColumn id="7" xr3:uid="{09DEF63E-243E-4CCA-968A-A369AA55039E}" name="driveway"/>
+    <tableColumn id="8" xr3:uid="{701D489E-2237-4C0E-955D-8B986D9EB514}" name="recroom"/>
+    <tableColumn id="9" xr3:uid="{F758743F-F0AE-4ABF-B631-06C82EEB5770}" name="fullbase"/>
+    <tableColumn id="10" xr3:uid="{3D04E70C-1EB8-4F59-A59D-C4278A898662}" name="gashw"/>
+    <tableColumn id="11" xr3:uid="{42834CFE-B593-4ED5-919B-E601AF5865FB}" name="airco"/>
+    <tableColumn id="12" xr3:uid="{FC050D63-A754-4C1D-8565-70723E450A6D}" name="garagepl"/>
+    <tableColumn id="13" xr3:uid="{127CF237-8103-4802-A6CB-5933702EDB52}" name="prefarea"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07051AD1-5557-4026-B676-093D510FC6A6}" name="Table1" displayName="Table1" ref="C1:E14" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B9609874-B8BF-4670-B302-3E86B625ED89}" name="Variable"/>
@@ -10416,11 +10425,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M547"/>
   <sheetViews>
-    <sheetView topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C547"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -32851,6 +32869,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -32858,15 +32879,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ACD74F-B08D-4A61-99B9-0D58811C68BF}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
